--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>950.9446226815394</v>
+        <v>1011.922715258481</v>
       </c>
       <c r="AB2" t="n">
-        <v>1301.124385468761</v>
+        <v>1384.557301896116</v>
       </c>
       <c r="AC2" t="n">
-        <v>1176.946900259166</v>
+        <v>1252.417096241527</v>
       </c>
       <c r="AD2" t="n">
-        <v>950944.6226815394</v>
+        <v>1011922.715258481</v>
       </c>
       <c r="AE2" t="n">
-        <v>1301124.385468761</v>
+        <v>1384557.301896116</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.378082655986951e-06</v>
+        <v>2.549813715499953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.02701822916667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1176946.900259166</v>
+        <v>1252417.096241527</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.9838696282995</v>
+        <v>507.5707609778851</v>
       </c>
       <c r="AB3" t="n">
-        <v>644.4209087673065</v>
+        <v>694.4807076115384</v>
       </c>
       <c r="AC3" t="n">
-        <v>582.91828168498</v>
+        <v>628.2004435868873</v>
       </c>
       <c r="AD3" t="n">
-        <v>470983.8696282995</v>
+        <v>507570.760977885</v>
       </c>
       <c r="AE3" t="n">
-        <v>644420.9087673065</v>
+        <v>694480.7076115384</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.148445799249034e-06</v>
+        <v>3.975187222721505e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.073567708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>582918.28168498</v>
+        <v>628200.4435868873</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>384.1515383229159</v>
+        <v>420.6530888179299</v>
       </c>
       <c r="AB4" t="n">
-        <v>525.6130823031858</v>
+        <v>575.55611402522</v>
       </c>
       <c r="AC4" t="n">
-        <v>475.4493074307633</v>
+        <v>520.6258463007317</v>
       </c>
       <c r="AD4" t="n">
-        <v>384151.5383229159</v>
+        <v>420653.0888179298</v>
       </c>
       <c r="AE4" t="n">
-        <v>525613.0823031858</v>
+        <v>575556.11402522</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.441241680629459e-06</v>
+        <v>4.516936261461875e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>475449.3074307633</v>
+        <v>520625.8463007318</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.1772848498924</v>
+        <v>374.7640866909269</v>
       </c>
       <c r="AB5" t="n">
-        <v>462.7090804604779</v>
+        <v>512.7687568351614</v>
       </c>
       <c r="AC5" t="n">
-        <v>418.5487752376023</v>
+        <v>463.830826358283</v>
       </c>
       <c r="AD5" t="n">
-        <v>338177.2848498924</v>
+        <v>374764.0866909269</v>
       </c>
       <c r="AE5" t="n">
-        <v>462709.0804604779</v>
+        <v>512768.7568351614</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.599683839654518e-06</v>
+        <v>4.810095738101674e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.8447265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>418548.7752376023</v>
+        <v>463830.8263582831</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.1314308226766</v>
+        <v>355.7182326637112</v>
       </c>
       <c r="AB6" t="n">
-        <v>436.6497027366632</v>
+        <v>486.7093791113467</v>
       </c>
       <c r="AC6" t="n">
-        <v>394.9764679491821</v>
+        <v>440.2585190698629</v>
       </c>
       <c r="AD6" t="n">
-        <v>319131.4308226766</v>
+        <v>355718.2326637112</v>
       </c>
       <c r="AE6" t="n">
-        <v>436649.7027366632</v>
+        <v>486709.3791113467</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.693703435493194e-06</v>
+        <v>4.984056606090051e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.641276041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>394976.467949182</v>
+        <v>440258.5190698628</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>303.3741777832666</v>
+        <v>339.790387423709</v>
       </c>
       <c r="AB7" t="n">
-        <v>415.0899339672004</v>
+        <v>464.9161985670368</v>
       </c>
       <c r="AC7" t="n">
-        <v>375.4743332517514</v>
+        <v>420.545249089781</v>
       </c>
       <c r="AD7" t="n">
-        <v>303374.1777832666</v>
+        <v>339790.387423709</v>
       </c>
       <c r="AE7" t="n">
-        <v>415089.9339672004</v>
+        <v>464916.1985670368</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.765595281367852e-06</v>
+        <v>5.117075343280767e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.494791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>375474.3332517514</v>
+        <v>420545.249089781</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>291.6814184084142</v>
+        <v>328.0976280488566</v>
       </c>
       <c r="AB8" t="n">
-        <v>399.0913847423904</v>
+        <v>448.9176493422269</v>
       </c>
       <c r="AC8" t="n">
-        <v>361.0026631108523</v>
+        <v>406.073578948882</v>
       </c>
       <c r="AD8" t="n">
-        <v>291681.4184084142</v>
+        <v>328097.6280488566</v>
       </c>
       <c r="AE8" t="n">
-        <v>399091.3847423904</v>
+        <v>448917.6493422269</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.814145618841647e-06</v>
+        <v>5.206906178786185e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.400390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>361002.6631108522</v>
+        <v>406073.578948882</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>281.8321602389157</v>
+        <v>318.2483698793581</v>
       </c>
       <c r="AB9" t="n">
-        <v>385.6151951962789</v>
+        <v>435.4414597961153</v>
       </c>
       <c r="AC9" t="n">
-        <v>348.8126221810709</v>
+        <v>393.8835380191005</v>
       </c>
       <c r="AD9" t="n">
-        <v>281832.1602389157</v>
+        <v>318248.369879358</v>
       </c>
       <c r="AE9" t="n">
-        <v>385615.1951962789</v>
+        <v>435441.4597961153</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.847570658871683e-06</v>
+        <v>5.268751253999531e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.3369140625</v>
       </c>
       <c r="AH9" t="n">
-        <v>348812.6221810709</v>
+        <v>393883.5380191005</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>273.6167342123699</v>
+        <v>310.0329438528123</v>
       </c>
       <c r="AB10" t="n">
-        <v>374.3744868677423</v>
+        <v>424.2007514675788</v>
       </c>
       <c r="AC10" t="n">
-        <v>338.6447112789765</v>
+        <v>383.7156271170062</v>
       </c>
       <c r="AD10" t="n">
-        <v>273616.7342123699</v>
+        <v>310032.9438528122</v>
       </c>
       <c r="AE10" t="n">
-        <v>374374.4868677423</v>
+        <v>424200.7514675788</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.873059586045425e-06</v>
+        <v>5.315912442639875e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.289713541666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>338644.7112789765</v>
+        <v>383715.6271170062</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>270.9410161656981</v>
+        <v>295.3323069016055</v>
       </c>
       <c r="AB11" t="n">
-        <v>370.7134513919369</v>
+        <v>404.0866914446075</v>
       </c>
       <c r="AC11" t="n">
-        <v>335.3330798906865</v>
+        <v>365.5212247523668</v>
       </c>
       <c r="AD11" t="n">
-        <v>270941.0161656981</v>
+        <v>295332.3069016055</v>
       </c>
       <c r="AE11" t="n">
-        <v>370713.4513919369</v>
+        <v>404086.6914446075</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.885757366615494e-06</v>
+        <v>5.339406661156677e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.265299479166667</v>
       </c>
       <c r="AH11" t="n">
-        <v>335333.0798906864</v>
+        <v>365521.2247523668</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>271.9446127695439</v>
+        <v>296.3359035054513</v>
       </c>
       <c r="AB12" t="n">
-        <v>372.0866165408759</v>
+        <v>405.4598565935466</v>
       </c>
       <c r="AC12" t="n">
-        <v>336.5751920850602</v>
+        <v>366.7633369467406</v>
       </c>
       <c r="AD12" t="n">
-        <v>271944.6127695439</v>
+        <v>296335.9035054513</v>
       </c>
       <c r="AE12" t="n">
-        <v>372086.6165408759</v>
+        <v>405459.8565935466</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.885757366615494e-06</v>
+        <v>5.339406661156677e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.265299479166667</v>
       </c>
       <c r="AH12" t="n">
-        <v>336575.1920850602</v>
+        <v>366763.3369467406</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>666.3751995945629</v>
+        <v>725.0231680575569</v>
       </c>
       <c r="AB2" t="n">
-        <v>911.763946484253</v>
+        <v>992.0086843010828</v>
       </c>
       <c r="AC2" t="n">
-        <v>824.746475100531</v>
+        <v>897.3327677643196</v>
       </c>
       <c r="AD2" t="n">
-        <v>666375.1995945629</v>
+        <v>725023.1680575568</v>
       </c>
       <c r="AE2" t="n">
-        <v>911763.9464842529</v>
+        <v>992008.6843010827</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.688127582339927e-06</v>
+        <v>3.217831704718871e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.313151041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>824746.475100531</v>
+        <v>897332.7677643195</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>376.8787717289601</v>
+        <v>412.2552489816835</v>
       </c>
       <c r="AB3" t="n">
-        <v>515.6621621975181</v>
+        <v>564.0658190747218</v>
       </c>
       <c r="AC3" t="n">
-        <v>466.4480891737764</v>
+        <v>510.232168973579</v>
       </c>
       <c r="AD3" t="n">
-        <v>376878.7717289602</v>
+        <v>412255.2489816835</v>
       </c>
       <c r="AE3" t="n">
-        <v>515662.1621975182</v>
+        <v>564065.8190747219</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.399578993915388e-06</v>
+        <v>4.573967895184553e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.551106770833333</v>
       </c>
       <c r="AH3" t="n">
-        <v>466448.0891737764</v>
+        <v>510232.168973579</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.7801322703345</v>
+        <v>346.0712686684861</v>
       </c>
       <c r="AB4" t="n">
-        <v>425.2230876240592</v>
+        <v>473.5099773790652</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.6403929455699</v>
+        <v>428.3188497134338</v>
       </c>
       <c r="AD4" t="n">
-        <v>310780.1322703345</v>
+        <v>346071.2686684862</v>
       </c>
       <c r="AE4" t="n">
-        <v>425223.0876240592</v>
+        <v>473509.9773790652</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.671951106411016e-06</v>
+        <v>5.093151177442661e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.8837890625</v>
       </c>
       <c r="AH4" t="n">
-        <v>384640.3929455699</v>
+        <v>428318.8497134338</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>286.0835880832574</v>
+        <v>321.3747244814091</v>
       </c>
       <c r="AB5" t="n">
-        <v>391.4321863326663</v>
+        <v>439.7190760876724</v>
       </c>
       <c r="AC5" t="n">
-        <v>354.0744478475998</v>
+        <v>397.7529046154636</v>
       </c>
       <c r="AD5" t="n">
-        <v>286083.5880832574</v>
+        <v>321374.7244814091</v>
       </c>
       <c r="AE5" t="n">
-        <v>391432.1863326663</v>
+        <v>439719.0760876724</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.804466900150024e-06</v>
+        <v>5.345746731789513e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.60546875</v>
       </c>
       <c r="AH5" t="n">
-        <v>354074.4478475998</v>
+        <v>397752.9046154636</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>268.6001185429515</v>
+        <v>303.720662740511</v>
       </c>
       <c r="AB6" t="n">
-        <v>367.5105319913805</v>
+        <v>415.5640099715396</v>
       </c>
       <c r="AC6" t="n">
-        <v>332.4358426223936</v>
+        <v>375.9031641076063</v>
       </c>
       <c r="AD6" t="n">
-        <v>268600.1185429515</v>
+        <v>303720.6627405111</v>
       </c>
       <c r="AE6" t="n">
-        <v>367510.5319913805</v>
+        <v>415564.0099715396</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.894581503326769e-06</v>
+        <v>5.51751907304725e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.431315104166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>332435.8426223936</v>
+        <v>375903.1641076063</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>254.0344196726829</v>
+        <v>289.1549638702455</v>
       </c>
       <c r="AB7" t="n">
-        <v>347.5811002036325</v>
+        <v>395.6345781839602</v>
       </c>
       <c r="AC7" t="n">
-        <v>314.4084478334396</v>
+        <v>357.8757693187002</v>
       </c>
       <c r="AD7" t="n">
-        <v>254034.4196726829</v>
+        <v>289154.9638702455</v>
       </c>
       <c r="AE7" t="n">
-        <v>347581.1002036325</v>
+        <v>395634.5781839602</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.956203279132518e-06</v>
+        <v>5.634979687969474e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.3173828125</v>
       </c>
       <c r="AH7" t="n">
-        <v>314408.4478334396</v>
+        <v>357875.7693187002</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>249.2145255534627</v>
+        <v>284.3350697510253</v>
       </c>
       <c r="AB8" t="n">
-        <v>340.9863084309977</v>
+        <v>389.0397864113218</v>
       </c>
       <c r="AC8" t="n">
-        <v>308.4430537317344</v>
+        <v>351.9103752169941</v>
       </c>
       <c r="AD8" t="n">
-        <v>249214.5255534627</v>
+        <v>284335.0697510254</v>
       </c>
       <c r="AE8" t="n">
-        <v>340986.3084309977</v>
+        <v>389039.7864113218</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.971077500878733e-06</v>
+        <v>5.663332250192079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.291341145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>308443.0537317345</v>
+        <v>351910.3752169941</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>249.7687839939648</v>
+        <v>273.2962977679535</v>
       </c>
       <c r="AB9" t="n">
-        <v>341.7446692814488</v>
+        <v>373.9360515878334</v>
       </c>
       <c r="AC9" t="n">
-        <v>309.129037686985</v>
+        <v>338.2481196468345</v>
       </c>
       <c r="AD9" t="n">
-        <v>249768.7839939648</v>
+        <v>273296.2977679535</v>
       </c>
       <c r="AE9" t="n">
-        <v>341744.6692814488</v>
+        <v>373936.0515878334</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.977355581485901e-06</v>
+        <v>5.675299240740582e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>309129.037686985</v>
+        <v>338248.1196468345</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>272.1806156248934</v>
+        <v>303.6562839530377</v>
       </c>
       <c r="AB2" t="n">
-        <v>372.4095260592763</v>
+        <v>415.4759240743269</v>
       </c>
       <c r="AC2" t="n">
-        <v>336.8672835722309</v>
+        <v>375.8234850047942</v>
       </c>
       <c r="AD2" t="n">
-        <v>272180.6156248934</v>
+        <v>303656.2839530377</v>
       </c>
       <c r="AE2" t="n">
-        <v>372409.5260592764</v>
+        <v>415475.9240743269</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.694178056797915e-06</v>
+        <v>5.737894186676652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>336867.2835722308</v>
+        <v>375823.4850047942</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.7629254659273</v>
+        <v>229.1532529394995</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.5879593068714</v>
+        <v>313.5375901997022</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.763424243289</v>
+        <v>283.6140026439072</v>
       </c>
       <c r="AD3" t="n">
-        <v>197762.9254659273</v>
+        <v>229153.2529394995</v>
       </c>
       <c r="AE3" t="n">
-        <v>270587.9593068714</v>
+        <v>313537.5901997022</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.182617730108106e-06</v>
+        <v>6.77814286473164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.511067708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>244763.424243289</v>
+        <v>283614.0026439072</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>196.8517217549832</v>
+        <v>228.0714570279632</v>
       </c>
       <c r="AB4" t="n">
-        <v>269.3412101900877</v>
+        <v>312.0574293080717</v>
       </c>
       <c r="AC4" t="n">
-        <v>243.6356631123874</v>
+        <v>282.2751062303545</v>
       </c>
       <c r="AD4" t="n">
-        <v>196851.7217549832</v>
+        <v>228071.4570279632</v>
       </c>
       <c r="AE4" t="n">
-        <v>269341.2101900877</v>
+        <v>312057.4293080717</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.198568540269162e-06</v>
+        <v>6.812113916000867e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.485026041666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>243635.6631123874</v>
+        <v>282275.1062303545</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.5493783887308</v>
+        <v>426.26597037294</v>
       </c>
       <c r="AB2" t="n">
-        <v>523.420936398926</v>
+        <v>583.2359061916428</v>
       </c>
       <c r="AC2" t="n">
-        <v>473.46637685491</v>
+        <v>527.5726898814472</v>
       </c>
       <c r="AD2" t="n">
-        <v>382549.3783887308</v>
+        <v>426265.97037294</v>
       </c>
       <c r="AE2" t="n">
-        <v>523420.936398926</v>
+        <v>583235.9061916429</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.286264342086594e-06</v>
+        <v>4.641907048407127e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.340494791666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>473466.37685491</v>
+        <v>527572.6898814472</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.4581549700536</v>
+        <v>285.3735431086577</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.4243852976054</v>
+        <v>390.4606714734455</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.4575667710745</v>
+        <v>353.1956530030134</v>
       </c>
       <c r="AD3" t="n">
-        <v>252458.1549700536</v>
+        <v>285373.5431086577</v>
       </c>
       <c r="AE3" t="n">
-        <v>345424.3852976054</v>
+        <v>390460.6714734455</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.882627332734598e-06</v>
+        <v>5.852730100990641e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.821940104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>312457.5667710745</v>
+        <v>353195.6530030135</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>219.9656423381887</v>
+        <v>252.7104382761971</v>
       </c>
       <c r="AB4" t="n">
-        <v>300.966696046222</v>
+        <v>345.7695704470247</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.2428569850703</v>
+        <v>312.7698079343039</v>
       </c>
       <c r="AD4" t="n">
-        <v>219965.6423381887</v>
+        <v>252710.4382761971</v>
       </c>
       <c r="AE4" t="n">
-        <v>300966.6960462219</v>
+        <v>345769.5704470247</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.097808792188676e-06</v>
+        <v>6.289622858726083e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>272242.8569850703</v>
+        <v>312769.8079343039</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>214.7799792652698</v>
+        <v>247.5247752032782</v>
       </c>
       <c r="AB5" t="n">
-        <v>293.8714430545493</v>
+        <v>338.674317455352</v>
       </c>
       <c r="AC5" t="n">
-        <v>265.8247649806705</v>
+        <v>306.351715929904</v>
       </c>
       <c r="AD5" t="n">
-        <v>214779.9792652698</v>
+        <v>247524.7752032782</v>
       </c>
       <c r="AE5" t="n">
-        <v>293871.4430545493</v>
+        <v>338674.3174553521</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.131730545978993e-06</v>
+        <v>6.35849574674475e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>265824.7649806705</v>
+        <v>306351.715929904</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.43379476156</v>
+        <v>239.4490662403902</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.8741163907059</v>
+        <v>327.6247761771994</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.8313937036846</v>
+        <v>296.3567273632062</v>
       </c>
       <c r="AD2" t="n">
-        <v>199433.79476156</v>
+        <v>239449.0662403902</v>
       </c>
       <c r="AE2" t="n">
-        <v>272874.1163907059</v>
+        <v>327624.7761771994</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.04696028672863e-06</v>
+        <v>6.784985413948379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.979817708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>246831.3937036846</v>
+        <v>296356.7273632062</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.3664024817829</v>
+        <v>212.5058673727629</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.5217573133204</v>
+        <v>290.759902836487</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.7077510013955</v>
+        <v>263.0101857939449</v>
       </c>
       <c r="AD3" t="n">
-        <v>182366.4024817829</v>
+        <v>212505.8673727629</v>
       </c>
       <c r="AE3" t="n">
-        <v>249521.7573133204</v>
+        <v>290759.9028364869</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.219115054040215e-06</v>
+        <v>7.168340454786431e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.6591796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>225707.7510013955</v>
+        <v>263010.1857939449</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>723.5391206365025</v>
+        <v>782.9252722744618</v>
       </c>
       <c r="AB2" t="n">
-        <v>989.9781451480446</v>
+        <v>1071.232897751205</v>
       </c>
       <c r="AC2" t="n">
-        <v>895.4960204181679</v>
+        <v>968.9959334746442</v>
       </c>
       <c r="AD2" t="n">
-        <v>723539.1206365025</v>
+        <v>782925.2722744618</v>
       </c>
       <c r="AE2" t="n">
-        <v>989978.1451480447</v>
+        <v>1071232.897751205</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.604716154198816e-06</v>
+        <v>3.034139002811269e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.708658854166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>895496.0204181678</v>
+        <v>968995.9334746442</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>394.9717219505615</v>
+        <v>442.3953024063574</v>
       </c>
       <c r="AB3" t="n">
-        <v>540.4177348953425</v>
+        <v>605.3047698556732</v>
       </c>
       <c r="AC3" t="n">
-        <v>488.8410247579848</v>
+        <v>547.5353321712272</v>
       </c>
       <c r="AD3" t="n">
-        <v>394971.7219505615</v>
+        <v>442395.3024063574</v>
       </c>
       <c r="AE3" t="n">
-        <v>540417.7348953425</v>
+        <v>605304.7698556732</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.33906642768604e-06</v>
+        <v>4.422621819964151e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.66015625</v>
       </c>
       <c r="AH3" t="n">
-        <v>488841.0247579848</v>
+        <v>547535.3321712272</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.7467271553359</v>
+        <v>373.08496675656</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.7010430252842</v>
+        <v>510.4713108634173</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.1639610242931</v>
+        <v>461.7526454055965</v>
       </c>
       <c r="AD4" t="n">
-        <v>325746.7271553359</v>
+        <v>373084.96675656</v>
       </c>
       <c r="AE4" t="n">
-        <v>445701.0430252842</v>
+        <v>510471.3108634173</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.611097642134775e-06</v>
+        <v>4.936968556975163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.966796875</v>
       </c>
       <c r="AH4" t="n">
-        <v>403163.9610242931</v>
+        <v>461752.6454055965</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>299.251531396128</v>
+        <v>334.8832223789034</v>
       </c>
       <c r="AB5" t="n">
-        <v>409.4491473019949</v>
+        <v>458.201998863891</v>
       </c>
       <c r="AC5" t="n">
-        <v>370.3718953489791</v>
+        <v>414.471843182865</v>
       </c>
       <c r="AD5" t="n">
-        <v>299251.5313961279</v>
+        <v>334883.2223789034</v>
       </c>
       <c r="AE5" t="n">
-        <v>409449.1473019948</v>
+        <v>458201.9988638911</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.751420569784966e-06</v>
+        <v>5.202286050450935e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.662434895833333</v>
       </c>
       <c r="AH5" t="n">
-        <v>370371.8953489792</v>
+        <v>414471.843182865</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>281.9470351081954</v>
+        <v>317.4081338903787</v>
       </c>
       <c r="AB6" t="n">
-        <v>385.7723720603489</v>
+        <v>434.2918118473982</v>
       </c>
       <c r="AC6" t="n">
-        <v>348.9547983058332</v>
+        <v>392.8436108570679</v>
       </c>
       <c r="AD6" t="n">
-        <v>281947.0351081954</v>
+        <v>317408.1338903788</v>
       </c>
       <c r="AE6" t="n">
-        <v>385772.3720603489</v>
+        <v>434291.8118473982</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.837566978301455e-06</v>
+        <v>5.365168549856253e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.489908854166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>348954.7983058331</v>
+        <v>392843.6108570679</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>266.4093287943438</v>
+        <v>301.8704275765271</v>
       </c>
       <c r="AB7" t="n">
-        <v>364.5129968065131</v>
+        <v>413.0324365935624</v>
       </c>
       <c r="AC7" t="n">
-        <v>329.7243879885028</v>
+        <v>373.6132005397376</v>
       </c>
       <c r="AD7" t="n">
-        <v>266409.3287943438</v>
+        <v>301870.4275765271</v>
       </c>
       <c r="AE7" t="n">
-        <v>364512.9968065131</v>
+        <v>413032.4365935624</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.907441287431496e-06</v>
+        <v>5.497284354929455e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>329724.3879885028</v>
+        <v>373613.2005397376</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>257.0311721817357</v>
+        <v>292.4922709639221</v>
       </c>
       <c r="AB8" t="n">
-        <v>351.6813891939063</v>
+        <v>400.2008289811263</v>
       </c>
       <c r="AC8" t="n">
-        <v>318.1174109972748</v>
+        <v>362.0062235485581</v>
       </c>
       <c r="AD8" t="n">
-        <v>257031.1721817356</v>
+        <v>292492.2709639221</v>
       </c>
       <c r="AE8" t="n">
-        <v>351681.3891939063</v>
+        <v>400200.8289811263</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.944388524861901e-06</v>
+        <v>5.567142849118846e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.291341145833333</v>
       </c>
       <c r="AH8" t="n">
-        <v>318117.4109972748</v>
+        <v>362006.2235485581</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>255.262999977745</v>
+        <v>290.7240987599315</v>
       </c>
       <c r="AB9" t="n">
-        <v>349.2620979781553</v>
+        <v>397.7815377653741</v>
       </c>
       <c r="AC9" t="n">
-        <v>315.9290135396577</v>
+        <v>359.8178260909406</v>
       </c>
       <c r="AD9" t="n">
-        <v>255262.9999777449</v>
+        <v>290724.0987599315</v>
       </c>
       <c r="AE9" t="n">
-        <v>349262.0979781553</v>
+        <v>397781.5377653741</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.949174436446151e-06</v>
+        <v>5.576191876863585e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.283203125</v>
       </c>
       <c r="AH9" t="n">
-        <v>315929.0135396577</v>
+        <v>359817.8260909406</v>
       </c>
     </row>
     <row r="10">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>256.2093074573639</v>
+        <v>291.6704062395504</v>
       </c>
       <c r="AB10" t="n">
-        <v>350.5568776199089</v>
+        <v>399.0763174071283</v>
       </c>
       <c r="AC10" t="n">
-        <v>317.1002212296373</v>
+        <v>360.9890337809205</v>
       </c>
       <c r="AD10" t="n">
-        <v>256209.3074573639</v>
+        <v>291670.4062395504</v>
       </c>
       <c r="AE10" t="n">
-        <v>350556.8776199089</v>
+        <v>399076.3174071283</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.949365872909521e-06</v>
+        <v>5.576553837973376e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.281575520833334</v>
       </c>
       <c r="AH10" t="n">
-        <v>317100.2212296373</v>
+        <v>360989.0337809205</v>
       </c>
     </row>
   </sheetData>
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.0432223404716</v>
+        <v>204.4419892948675</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.501859168077</v>
+        <v>279.7265490971229</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.6441378721156</v>
+        <v>253.0298398500531</v>
       </c>
       <c r="AD2" t="n">
-        <v>175043.2223404716</v>
+        <v>204441.9892948675</v>
       </c>
       <c r="AE2" t="n">
-        <v>239501.859168077</v>
+        <v>279726.5490971229</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.187392772252319e-06</v>
+        <v>7.307310683068723e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.849609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>216644.1378721156</v>
+        <v>253029.8398500531</v>
       </c>
     </row>
     <row r="3">
@@ -8551,28 +8551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.3031617939248</v>
+        <v>204.7019287483208</v>
       </c>
       <c r="AB3" t="n">
-        <v>239.8575197960109</v>
+        <v>280.0822097250568</v>
       </c>
       <c r="AC3" t="n">
-        <v>216.9658547488924</v>
+        <v>253.3515567268299</v>
       </c>
       <c r="AD3" t="n">
-        <v>175303.1617939248</v>
+        <v>204701.9287483208</v>
       </c>
       <c r="AE3" t="n">
-        <v>239857.5197960109</v>
+        <v>280082.2097250568</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.202169903164109e-06</v>
+        <v>7.341188242030657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.821940104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>216965.8547488924</v>
+        <v>253351.5567268299</v>
       </c>
     </row>
   </sheetData>
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>509.5173714685554</v>
+        <v>555.0132827891629</v>
       </c>
       <c r="AB2" t="n">
-        <v>697.1441459632674</v>
+        <v>759.3936589700731</v>
       </c>
       <c r="AC2" t="n">
-        <v>630.6096871204866</v>
+        <v>686.9181939736628</v>
       </c>
       <c r="AD2" t="n">
-        <v>509517.3714685554</v>
+        <v>555013.2827891628</v>
       </c>
       <c r="AE2" t="n">
-        <v>697144.1459632674</v>
+        <v>759393.6589700731</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.963697141498763e-06</v>
+        <v>3.848819259172327e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.248697916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>630609.6871204865</v>
+        <v>686918.1939736628</v>
       </c>
     </row>
     <row r="3">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.7009788579471</v>
+        <v>352.8015995118976</v>
       </c>
       <c r="AB3" t="n">
-        <v>436.0607393683198</v>
+        <v>482.7187129602617</v>
       </c>
       <c r="AC3" t="n">
-        <v>394.4437144180981</v>
+        <v>436.6487164953024</v>
       </c>
       <c r="AD3" t="n">
-        <v>318700.9788579471</v>
+        <v>352801.5995118975</v>
       </c>
       <c r="AE3" t="n">
-        <v>436060.7393683198</v>
+        <v>482718.7129602617</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.625460988403277e-06</v>
+        <v>5.145867253572367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.168619791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>394443.7144180981</v>
+        <v>436648.7164953024</v>
       </c>
     </row>
     <row r="4">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>267.3611698941496</v>
+        <v>301.5470418941205</v>
       </c>
       <c r="AB4" t="n">
-        <v>365.8153477915328</v>
+        <v>412.5899660361242</v>
       </c>
       <c r="AC4" t="n">
-        <v>330.9024444233734</v>
+        <v>373.2129587512899</v>
       </c>
       <c r="AD4" t="n">
-        <v>267361.1698941495</v>
+        <v>301547.0418941205</v>
       </c>
       <c r="AE4" t="n">
-        <v>365815.3477915328</v>
+        <v>412589.9660361242</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.859416898790121e-06</v>
+        <v>5.604417604675299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.6640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>330902.4444233734</v>
+        <v>373212.9587512899</v>
       </c>
     </row>
     <row r="5">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>244.1344217587474</v>
+        <v>278.1497015581292</v>
       </c>
       <c r="AB5" t="n">
-        <v>334.0354863007095</v>
+        <v>380.5766927706155</v>
       </c>
       <c r="AC5" t="n">
-        <v>302.1556083100188</v>
+        <v>344.2549873553302</v>
       </c>
       <c r="AD5" t="n">
-        <v>244134.4217587474</v>
+        <v>278149.7015581292</v>
       </c>
       <c r="AE5" t="n">
-        <v>334035.4863007095</v>
+        <v>380576.6927706155</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.993063341856701e-06</v>
+        <v>5.866362786100749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.411783854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>302155.6083100188</v>
+        <v>344254.9873553302</v>
       </c>
     </row>
     <row r="6">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>232.8840791383074</v>
+        <v>266.8993589376891</v>
       </c>
       <c r="AB6" t="n">
-        <v>318.6422711973442</v>
+        <v>365.1834776672422</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.2315000516006</v>
+        <v>330.3308790969097</v>
       </c>
       <c r="AD6" t="n">
-        <v>232884.0791383074</v>
+        <v>266899.3589376891</v>
       </c>
       <c r="AE6" t="n">
-        <v>318642.2711973442</v>
+        <v>365183.4776672422</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.047497150015613e-06</v>
+        <v>5.973052297820572e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.314127604166667</v>
       </c>
       <c r="AH6" t="n">
-        <v>288231.5000516006</v>
+        <v>330330.8790969097</v>
       </c>
     </row>
     <row r="7">
@@ -9378,28 +9378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>232.9958992684631</v>
+        <v>267.0111790678447</v>
       </c>
       <c r="AB7" t="n">
-        <v>318.795268432579</v>
+        <v>365.3364749024771</v>
       </c>
       <c r="AC7" t="n">
-        <v>288.3698954454376</v>
+        <v>330.4692744907467</v>
       </c>
       <c r="AD7" t="n">
-        <v>232995.8992684631</v>
+        <v>267011.1790678447</v>
       </c>
       <c r="AE7" t="n">
-        <v>318795.2684325789</v>
+        <v>365336.4749024771</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.054562598606625e-06</v>
+        <v>5.986900479414919e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.302734375</v>
       </c>
       <c r="AH7" t="n">
-        <v>288369.8954454376</v>
+        <v>330469.2744907467</v>
       </c>
     </row>
   </sheetData>
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>603.2306327841001</v>
+        <v>661.3746782595513</v>
       </c>
       <c r="AB2" t="n">
-        <v>825.3667644324979</v>
+        <v>904.9220125862585</v>
       </c>
       <c r="AC2" t="n">
-        <v>746.5949188445888</v>
+        <v>818.5575257710469</v>
       </c>
       <c r="AD2" t="n">
-        <v>603230.6327841</v>
+        <v>661374.6782595513</v>
       </c>
       <c r="AE2" t="n">
-        <v>825366.7644324979</v>
+        <v>904922.0125862585</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.773779437870205e-06</v>
+        <v>3.410451190629392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.946940104166666</v>
       </c>
       <c r="AH2" t="n">
-        <v>746594.9188445888</v>
+        <v>818557.5257710469</v>
       </c>
     </row>
     <row r="3">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.8639304137958</v>
+        <v>390.716310865789</v>
       </c>
       <c r="AB3" t="n">
-        <v>486.9087292007435</v>
+        <v>534.5952937136693</v>
       </c>
       <c r="AC3" t="n">
-        <v>440.4388434665172</v>
+        <v>483.574269190843</v>
       </c>
       <c r="AD3" t="n">
-        <v>355863.9304137958</v>
+        <v>390716.310865789</v>
       </c>
       <c r="AE3" t="n">
-        <v>486908.7292007435</v>
+        <v>534595.2937136693</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.477558020903799e-06</v>
+        <v>4.763608440737294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH3" t="n">
-        <v>440438.8434665172</v>
+        <v>483574.269190843</v>
       </c>
     </row>
     <row r="4">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>296.2613148926602</v>
+        <v>331.1989466906739</v>
       </c>
       <c r="AB4" t="n">
-        <v>405.3578011629084</v>
+        <v>453.1610103284834</v>
       </c>
       <c r="AC4" t="n">
-        <v>366.6710215431668</v>
+        <v>409.9119595182048</v>
       </c>
       <c r="AD4" t="n">
-        <v>296261.3148926601</v>
+        <v>331198.9466906739</v>
       </c>
       <c r="AE4" t="n">
-        <v>405357.8011629084</v>
+        <v>453161.0103284834</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.730969012494865e-06</v>
+        <v>5.250842535088975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.810546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>366671.0215431668</v>
+        <v>409911.9595182048</v>
       </c>
     </row>
     <row r="5">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>272.2918231367009</v>
+        <v>307.2294549347147</v>
       </c>
       <c r="AB5" t="n">
-        <v>372.5616850830606</v>
+        <v>420.3648942486356</v>
       </c>
       <c r="AC5" t="n">
-        <v>337.0049207523415</v>
+        <v>380.2458587273796</v>
       </c>
       <c r="AD5" t="n">
-        <v>272291.823136701</v>
+        <v>307229.4549347147</v>
       </c>
       <c r="AE5" t="n">
-        <v>372561.6850830606</v>
+        <v>420364.8942486356</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.867473586649344e-06</v>
+        <v>5.513300300418854e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>337004.9207523416</v>
+        <v>380245.8587273796</v>
       </c>
     </row>
     <row r="6">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>255.0925914413467</v>
+        <v>289.8596310387714</v>
       </c>
       <c r="AB6" t="n">
-        <v>349.0289375007613</v>
+        <v>396.5987348916586</v>
       </c>
       <c r="AC6" t="n">
-        <v>315.7181055709833</v>
+        <v>358.7479082634184</v>
       </c>
       <c r="AD6" t="n">
-        <v>255092.5914413467</v>
+        <v>289859.6310387714</v>
       </c>
       <c r="AE6" t="n">
-        <v>349028.9375007613</v>
+        <v>396598.7348916586</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.951911416090615e-06</v>
+        <v>5.675649175258622e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.3759765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>315718.1055709833</v>
+        <v>358747.9082634184</v>
       </c>
     </row>
     <row r="7">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>243.4342549574694</v>
+        <v>278.2012945548939</v>
       </c>
       <c r="AB7" t="n">
-        <v>333.0774871940222</v>
+        <v>380.6472845849113</v>
       </c>
       <c r="AC7" t="n">
-        <v>301.2890392935132</v>
+        <v>344.3188419859459</v>
       </c>
       <c r="AD7" t="n">
-        <v>243434.2549574694</v>
+        <v>278201.2945548939</v>
       </c>
       <c r="AE7" t="n">
-        <v>333077.4871940222</v>
+        <v>380647.2845849114</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.999688017044682e-06</v>
+        <v>5.767509393124079e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.289713541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>301289.0392935132</v>
+        <v>344318.8419859459</v>
       </c>
     </row>
     <row r="8">
@@ -10311,28 +10311,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>243.0519932389261</v>
+        <v>266.3438372794893</v>
       </c>
       <c r="AB8" t="n">
-        <v>332.5544598465148</v>
+        <v>364.4233884266073</v>
       </c>
       <c r="AC8" t="n">
-        <v>300.8159289419782</v>
+        <v>329.6433317066091</v>
       </c>
       <c r="AD8" t="n">
-        <v>243051.9932389261</v>
+        <v>266343.8372794893</v>
       </c>
       <c r="AE8" t="n">
-        <v>332554.4598465147</v>
+        <v>364423.3884266073</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.005635716347128e-06</v>
+        <v>5.778945052899167e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.279947916666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>300815.9289419782</v>
+        <v>329643.3317066091</v>
       </c>
     </row>
   </sheetData>
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>866.9476384811685</v>
+        <v>939.4194302628141</v>
       </c>
       <c r="AB2" t="n">
-        <v>1186.196006000405</v>
+        <v>1285.355108745857</v>
       </c>
       <c r="AC2" t="n">
-        <v>1072.987124024277</v>
+        <v>1162.682621174377</v>
       </c>
       <c r="AD2" t="n">
-        <v>866947.6384811685</v>
+        <v>939419.4302628142</v>
       </c>
       <c r="AE2" t="n">
-        <v>1186196.006000405</v>
+        <v>1285355.108745857</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448295800932687e-06</v>
+        <v>2.69806522907986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.576171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1072987.124024277</v>
+        <v>1162682.621174377</v>
       </c>
     </row>
     <row r="3">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>436.5145192665587</v>
+        <v>484.8006001694652</v>
       </c>
       <c r="AB3" t="n">
-        <v>597.258422921959</v>
+        <v>663.325569044861</v>
       </c>
       <c r="AC3" t="n">
-        <v>540.2569172957479</v>
+        <v>600.018707718502</v>
       </c>
       <c r="AD3" t="n">
-        <v>436514.5192665587</v>
+        <v>484800.6001694652</v>
       </c>
       <c r="AE3" t="n">
-        <v>597258.422921959</v>
+        <v>663325.569044861</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.210888618851822e-06</v>
+        <v>4.11871780892482e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.9287109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>540256.9172957479</v>
+        <v>600018.707718502</v>
       </c>
     </row>
     <row r="4">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.2413172805061</v>
+        <v>404.4346322525942</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.8440159635467</v>
+        <v>553.3653062447221</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.7578502295028</v>
+        <v>500.5528980698102</v>
       </c>
       <c r="AD4" t="n">
-        <v>368241.3172805061</v>
+        <v>404434.6322525942</v>
       </c>
       <c r="AE4" t="n">
-        <v>503844.0159635467</v>
+        <v>553365.3062447221</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.49576686886308e-06</v>
+        <v>4.649424381699188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.1376953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>455757.8502295028</v>
+        <v>500552.8980698102</v>
       </c>
     </row>
     <row r="5">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.2108891920709</v>
+        <v>361.4894555101795</v>
       </c>
       <c r="AB5" t="n">
-        <v>444.9678858844425</v>
+        <v>494.6058208182673</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.5007753719808</v>
+        <v>447.4013354630005</v>
       </c>
       <c r="AD5" t="n">
-        <v>325210.8891920709</v>
+        <v>361489.4555101795</v>
       </c>
       <c r="AE5" t="n">
-        <v>444967.8858844425</v>
+        <v>494605.8208182673</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.647193728548615e-06</v>
+        <v>4.931521136107498e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.7861328125</v>
       </c>
       <c r="AH5" t="n">
-        <v>402500.7753719807</v>
+        <v>447401.3354630005</v>
       </c>
     </row>
     <row r="6">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>304.9292775276294</v>
+        <v>341.207843845738</v>
       </c>
       <c r="AB6" t="n">
-        <v>417.2176900435961</v>
+        <v>466.8556249774209</v>
       </c>
       <c r="AC6" t="n">
-        <v>377.3990192745403</v>
+        <v>422.2995793655599</v>
       </c>
       <c r="AD6" t="n">
-        <v>304929.2775276294</v>
+        <v>341207.843845738</v>
       </c>
       <c r="AE6" t="n">
-        <v>417217.6900435961</v>
+        <v>466855.6249774209</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.747799889520545e-06</v>
+        <v>5.118942783380639e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.574544270833333</v>
       </c>
       <c r="AH6" t="n">
-        <v>377399.0192745402</v>
+        <v>422299.5793655599</v>
       </c>
     </row>
     <row r="7">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>291.8252696815352</v>
+        <v>327.9332437990516</v>
       </c>
       <c r="AB7" t="n">
-        <v>399.2882084005448</v>
+        <v>448.6927315595224</v>
       </c>
       <c r="AC7" t="n">
-        <v>361.1807021953162</v>
+        <v>405.8701270036848</v>
       </c>
       <c r="AD7" t="n">
-        <v>291825.2696815352</v>
+        <v>327933.2437990516</v>
       </c>
       <c r="AE7" t="n">
-        <v>399288.2084005448</v>
+        <v>448692.7315595224</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.808502390761794e-06</v>
+        <v>5.232026939125425e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.4541015625</v>
       </c>
       <c r="AH7" t="n">
-        <v>361180.7021953162</v>
+        <v>405870.1270036848</v>
       </c>
     </row>
     <row r="8">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>279.3289418246829</v>
+        <v>315.4369159421993</v>
       </c>
       <c r="AB8" t="n">
-        <v>382.1901813277231</v>
+        <v>431.5947044867008</v>
       </c>
       <c r="AC8" t="n">
-        <v>345.7144868290929</v>
+        <v>390.4039116374615</v>
       </c>
       <c r="AD8" t="n">
-        <v>279328.9418246829</v>
+        <v>315436.9159421993</v>
       </c>
       <c r="AE8" t="n">
-        <v>382190.1813277231</v>
+        <v>431594.7044867008</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.859887763905549e-06</v>
+        <v>5.32775399189543e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.3564453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>345714.486829093</v>
+        <v>390403.9116374615</v>
       </c>
     </row>
     <row r="9">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>270.1313828769619</v>
+        <v>306.2393569944784</v>
       </c>
       <c r="AB9" t="n">
-        <v>369.6056754077881</v>
+        <v>419.0101985667659</v>
       </c>
       <c r="AC9" t="n">
-        <v>334.3310284916916</v>
+        <v>379.0204533000601</v>
       </c>
       <c r="AD9" t="n">
-        <v>270131.3828769619</v>
+        <v>306239.3569944784</v>
       </c>
       <c r="AE9" t="n">
-        <v>369605.6754077881</v>
+        <v>419010.1985667659</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.889909621108586e-06</v>
+        <v>5.383682434814169e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.301106770833333</v>
       </c>
       <c r="AH9" t="n">
-        <v>334331.0284916916</v>
+        <v>379020.4533000601</v>
       </c>
     </row>
     <row r="10">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>266.4416285349438</v>
+        <v>290.6274289222339</v>
       </c>
       <c r="AB10" t="n">
-        <v>364.5571907365659</v>
+        <v>397.6492698286641</v>
       </c>
       <c r="AC10" t="n">
-        <v>329.764364111898</v>
+        <v>359.6981816204711</v>
       </c>
       <c r="AD10" t="n">
-        <v>266441.6285349438</v>
+        <v>290627.4289222339</v>
       </c>
       <c r="AE10" t="n">
-        <v>364557.1907365659</v>
+        <v>397649.2698286641</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.902803020597037e-06</v>
+        <v>5.407701860142907e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.276692708333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>329764.364111898</v>
+        <v>359698.1816204711</v>
       </c>
     </row>
     <row r="11">
@@ -11562,28 +11562,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>267.4969523084569</v>
+        <v>291.682752695747</v>
       </c>
       <c r="AB11" t="n">
-        <v>366.0011312810855</v>
+        <v>399.0932103731836</v>
       </c>
       <c r="AC11" t="n">
-        <v>331.0704969974319</v>
+        <v>361.004314506005</v>
       </c>
       <c r="AD11" t="n">
-        <v>267496.9523084569</v>
+        <v>291682.752695747</v>
       </c>
       <c r="AE11" t="n">
-        <v>366001.1312810855</v>
+        <v>399093.2103731837</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.902520683381961e-06</v>
+        <v>5.407175887325488e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.276692708333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>331070.4969974319</v>
+        <v>361004.314506005</v>
       </c>
     </row>
   </sheetData>
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>419.0175569787642</v>
+        <v>463.4994909352004</v>
       </c>
       <c r="AB2" t="n">
-        <v>573.3183072083012</v>
+        <v>634.1804516519238</v>
       </c>
       <c r="AC2" t="n">
-        <v>518.6016126256382</v>
+        <v>573.6551594241176</v>
       </c>
       <c r="AD2" t="n">
-        <v>419017.5569787642</v>
+        <v>463499.4909352004</v>
       </c>
       <c r="AE2" t="n">
-        <v>573318.3072083013</v>
+        <v>634180.4516519238</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.170598805994577e-06</v>
+        <v>4.350959565304926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.635091145833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>518601.6126256382</v>
+        <v>573655.1594241176</v>
       </c>
     </row>
     <row r="3">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.0007828670509</v>
+        <v>304.362233334378</v>
       </c>
       <c r="AB3" t="n">
-        <v>370.7952268294484</v>
+        <v>416.4418351621653</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.4070507952145</v>
+        <v>376.6972108940741</v>
       </c>
       <c r="AD3" t="n">
-        <v>271000.7828670509</v>
+        <v>304362.233334378</v>
       </c>
       <c r="AE3" t="n">
-        <v>370795.2268294484</v>
+        <v>416441.8351621653</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.790653533163157e-06</v>
+        <v>5.593857625847494e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>335407.0507952145</v>
+        <v>376697.2108940741</v>
       </c>
     </row>
     <row r="4">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>236.4259024273969</v>
+        <v>269.7873528947269</v>
       </c>
       <c r="AB4" t="n">
-        <v>323.4883500756895</v>
+        <v>369.1349584085626</v>
       </c>
       <c r="AC4" t="n">
-        <v>292.6150759633126</v>
+        <v>333.9052360622165</v>
       </c>
       <c r="AD4" t="n">
-        <v>236425.9024273969</v>
+        <v>269787.3528947269</v>
       </c>
       <c r="AE4" t="n">
-        <v>323488.3500756895</v>
+        <v>369134.9584085626</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.011999834782943e-06</v>
+        <v>6.037545701975497e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.501302083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>292615.0759633126</v>
+        <v>333905.2360622166</v>
       </c>
     </row>
     <row r="5">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>221.0424059905179</v>
+        <v>254.2332642572523</v>
       </c>
       <c r="AB5" t="n">
-        <v>302.4399715787977</v>
+        <v>347.8531681366443</v>
       </c>
       <c r="AC5" t="n">
-        <v>273.5755251685727</v>
+        <v>314.6545499847746</v>
       </c>
       <c r="AD5" t="n">
-        <v>221042.4059905179</v>
+        <v>254233.2642572523</v>
       </c>
       <c r="AE5" t="n">
-        <v>302439.9715787977</v>
+        <v>347853.1681366443</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.100171820616768e-06</v>
+        <v>6.214286214361355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.345052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>273575.5251685727</v>
+        <v>314654.5499847746</v>
       </c>
     </row>
     <row r="6">
@@ -12283,28 +12283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>221.5049831577406</v>
+        <v>254.695841424475</v>
       </c>
       <c r="AB6" t="n">
-        <v>303.0728900664558</v>
+        <v>348.4860866243024</v>
       </c>
       <c r="AC6" t="n">
-        <v>274.1480388040756</v>
+        <v>315.2270636202774</v>
       </c>
       <c r="AD6" t="n">
-        <v>221504.9831577406</v>
+        <v>254695.841424475</v>
       </c>
       <c r="AE6" t="n">
-        <v>303072.8900664558</v>
+        <v>348486.0866243024</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.105364397149706e-06</v>
+        <v>6.224694720287079e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.3369140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>274148.0388040756</v>
+        <v>315227.0636202774</v>
       </c>
     </row>
   </sheetData>
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>303.9907899900008</v>
+        <v>346.4864451629174</v>
       </c>
       <c r="AB2" t="n">
-        <v>415.9336099914646</v>
+        <v>474.0780401750402</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.2374900203665</v>
+        <v>428.8326973934419</v>
       </c>
       <c r="AD2" t="n">
-        <v>303990.7899900008</v>
+        <v>346486.4451629174</v>
       </c>
       <c r="AE2" t="n">
-        <v>415933.6099914646</v>
+        <v>474078.0401750402</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.545703337442378e-06</v>
+        <v>5.325770584913316e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.780598958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>376237.4900203664</v>
+        <v>428832.6973934419</v>
       </c>
     </row>
     <row r="3">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.1727970381854</v>
+        <v>246.1085440588011</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.0406695444635</v>
+        <v>336.736567523771</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.0732793283891</v>
+        <v>304.5989021321433</v>
       </c>
       <c r="AD3" t="n">
-        <v>214172.7970381854</v>
+        <v>246108.5440588011</v>
       </c>
       <c r="AE3" t="n">
-        <v>293040.6695444635</v>
+        <v>336736.567523771</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.089885474026007e-06</v>
+        <v>6.464233646663523e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.5859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>265073.2793283891</v>
+        <v>304598.9021321433</v>
       </c>
     </row>
     <row r="4">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>202.8810890623616</v>
+        <v>234.6462438823851</v>
       </c>
       <c r="AB4" t="n">
-        <v>277.5908565369512</v>
+        <v>321.0533427414118</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.0979747903601</v>
+        <v>290.4124623114633</v>
       </c>
       <c r="AD4" t="n">
-        <v>202881.0890623616</v>
+        <v>234646.2438823851</v>
       </c>
       <c r="AE4" t="n">
-        <v>277590.8565369512</v>
+        <v>321053.3427414118</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.174837703884413e-06</v>
+        <v>6.641959024262804e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.437825520833333</v>
       </c>
       <c r="AH4" t="n">
-        <v>251097.9747903601</v>
+        <v>290412.4623114633</v>
       </c>
     </row>
   </sheetData>
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.8990698182753</v>
+        <v>271.6099740809398</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.608735042104</v>
+        <v>371.6287491239108</v>
       </c>
       <c r="AC2" t="n">
-        <v>298.1513399785487</v>
+        <v>336.1610228917492</v>
       </c>
       <c r="AD2" t="n">
-        <v>240899.0698182753</v>
+        <v>271609.9740809398</v>
       </c>
       <c r="AE2" t="n">
-        <v>329608.735042104</v>
+        <v>371628.7491239108</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.859638675785234e-06</v>
+        <v>6.216442035061457e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.2451171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>298151.3399785487</v>
+        <v>336161.0228917492</v>
       </c>
     </row>
     <row r="3">
@@ -23024,28 +23024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>188.7537575026266</v>
+        <v>219.5499131113081</v>
       </c>
       <c r="AB3" t="n">
-        <v>258.2612182430502</v>
+        <v>300.3978769773253</v>
       </c>
       <c r="AC3" t="n">
-        <v>233.6131300459051</v>
+        <v>271.7283252097664</v>
       </c>
       <c r="AD3" t="n">
-        <v>188753.7575026266</v>
+        <v>219549.9131113082</v>
       </c>
       <c r="AE3" t="n">
-        <v>258261.2182430502</v>
+        <v>300397.8769773253</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.215324407106766e-06</v>
+        <v>6.989651514350513e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.553385416666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>233613.1300459051</v>
+        <v>271728.3252097664</v>
       </c>
     </row>
   </sheetData>
@@ -23321,28 +23321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.4137568773587</v>
+        <v>203.8656375544594</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.0088408682757</v>
+        <v>278.9379592190527</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.1027339504007</v>
+        <v>252.3165118831528</v>
       </c>
       <c r="AD2" t="n">
-        <v>175413.7568773587</v>
+        <v>203865.6375544594</v>
       </c>
       <c r="AE2" t="n">
-        <v>240008.8408682757</v>
+        <v>278937.9592190527</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.134853756376154e-06</v>
+        <v>7.456334186242252e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.11328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>217102.7339504007</v>
+        <v>252316.5118831528</v>
       </c>
     </row>
   </sheetData>
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>555.1244104476641</v>
+        <v>612.6553510988605</v>
       </c>
       <c r="AB2" t="n">
-        <v>759.5457087350411</v>
+        <v>838.26207981998</v>
       </c>
       <c r="AC2" t="n">
-        <v>687.0557323224655</v>
+        <v>758.2595234301788</v>
       </c>
       <c r="AD2" t="n">
-        <v>555124.4104476641</v>
+        <v>612655.3510988605</v>
       </c>
       <c r="AE2" t="n">
-        <v>759545.7087350411</v>
+        <v>838262.0798199801</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.865147378324473e-06</v>
+        <v>3.619464332816197e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH2" t="n">
-        <v>687055.7323224655</v>
+        <v>758259.5234301788</v>
       </c>
     </row>
     <row r="3">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.0861635116771</v>
+        <v>371.5706810691173</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.2161601086557</v>
+        <v>508.3993983802885</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.1983371088311</v>
+        <v>459.8784733419101</v>
       </c>
       <c r="AD3" t="n">
-        <v>337086.1635116771</v>
+        <v>371570.6810691173</v>
       </c>
       <c r="AE3" t="n">
-        <v>461216.1601086557</v>
+        <v>508399.3983802885</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.550347772114425e-06</v>
+        <v>4.949149276202422e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.2841796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>417198.3371088311</v>
+        <v>459878.4733419101</v>
       </c>
     </row>
     <row r="4">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>280.940482630473</v>
+        <v>315.5102515339337</v>
       </c>
       <c r="AB4" t="n">
-        <v>384.3951625543677</v>
+        <v>431.6950454786498</v>
       </c>
       <c r="AC4" t="n">
-        <v>347.7090277421771</v>
+        <v>390.4946762259684</v>
       </c>
       <c r="AD4" t="n">
-        <v>280940.482630473</v>
+        <v>315510.2515339337</v>
       </c>
       <c r="AE4" t="n">
-        <v>384395.1625543677</v>
+        <v>431695.0454786498</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.800084506614471e-06</v>
+        <v>5.43378293766081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.724283854166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>347709.0277421771</v>
+        <v>390494.6762259683</v>
       </c>
     </row>
     <row r="5">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>258.3913018684348</v>
+        <v>292.7904785713034</v>
       </c>
       <c r="AB5" t="n">
-        <v>353.5423786361014</v>
+        <v>400.6088497855364</v>
       </c>
       <c r="AC5" t="n">
-        <v>319.8007902189159</v>
+        <v>362.3753034200561</v>
       </c>
       <c r="AD5" t="n">
-        <v>258391.3018684348</v>
+        <v>292790.4785713034</v>
       </c>
       <c r="AE5" t="n">
-        <v>353542.3786361014</v>
+        <v>400608.8497855365</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.925445257016111e-06</v>
+        <v>5.677055276397612e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.478515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>319800.790218916</v>
+        <v>362375.3034200561</v>
       </c>
     </row>
     <row r="6">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>241.9013596000005</v>
+        <v>276.300536302872</v>
       </c>
       <c r="AB6" t="n">
-        <v>330.980112139364</v>
+        <v>378.0465832889591</v>
       </c>
       <c r="AC6" t="n">
-        <v>299.3918347703865</v>
+        <v>341.9663479715722</v>
       </c>
       <c r="AD6" t="n">
-        <v>241901.3596000005</v>
+        <v>276300.536302872</v>
       </c>
       <c r="AE6" t="n">
-        <v>330980.112139364</v>
+        <v>378046.5832889591</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.009445822681939e-06</v>
+        <v>5.840064942495405e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.325520833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>299391.8347703865</v>
+        <v>341966.3479715722</v>
       </c>
     </row>
     <row r="7">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>237.9758680383623</v>
+        <v>272.3750447412338</v>
       </c>
       <c r="AB7" t="n">
-        <v>325.6090814042682</v>
+        <v>372.6755525538605</v>
       </c>
       <c r="AC7" t="n">
-        <v>294.5334076703575</v>
+        <v>337.1079208715424</v>
       </c>
       <c r="AD7" t="n">
-        <v>237975.8680383623</v>
+        <v>272375.0447412338</v>
       </c>
       <c r="AE7" t="n">
-        <v>325609.0814042682</v>
+        <v>372675.5525538605</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.024611223751736e-06</v>
+        <v>5.869494589129709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.299479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>294533.4076703575</v>
+        <v>337107.9208715424</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>798.3104418271306</v>
+        <v>858.1593440017323</v>
       </c>
       <c r="AB2" t="n">
-        <v>1092.283565478944</v>
+        <v>1174.171473781452</v>
       </c>
       <c r="AC2" t="n">
-        <v>988.0375550192452</v>
+        <v>1062.110196283763</v>
       </c>
       <c r="AD2" t="n">
-        <v>798310.4418271306</v>
+        <v>858159.3440017323</v>
       </c>
       <c r="AE2" t="n">
-        <v>1092283.565478944</v>
+        <v>1174171.473781452</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.524681414126502e-06</v>
+        <v>2.86090035754016e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>988037.5550192453</v>
+        <v>1062110.196283763</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>415.9517082782722</v>
+        <v>463.8136902401984</v>
       </c>
       <c r="AB3" t="n">
-        <v>569.1234777605893</v>
+        <v>634.6103530025172</v>
       </c>
       <c r="AC3" t="n">
-        <v>514.8071318129357</v>
+        <v>574.0440315931806</v>
       </c>
       <c r="AD3" t="n">
-        <v>415951.7082782722</v>
+        <v>463813.6902401984</v>
       </c>
       <c r="AE3" t="n">
-        <v>569123.4777605892</v>
+        <v>634610.3530025171</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.272455705737682e-06</v>
+        <v>4.264018227548031e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>514807.1318129357</v>
+        <v>574044.0315931806</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>353.6095345743895</v>
+        <v>389.4847753407423</v>
       </c>
       <c r="AB4" t="n">
-        <v>483.8241653563427</v>
+        <v>532.9102524767875</v>
       </c>
       <c r="AC4" t="n">
-        <v>437.6486660662135</v>
+        <v>482.0500459246391</v>
       </c>
       <c r="AD4" t="n">
-        <v>353609.5345743895</v>
+        <v>389484.7753407423</v>
       </c>
       <c r="AE4" t="n">
-        <v>483824.1653563427</v>
+        <v>532910.2524767875</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.548505885216987e-06</v>
+        <v>4.78199663920449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.061197916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>437648.6660662135</v>
+        <v>482050.0459246391</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>312.424474818831</v>
+        <v>348.3849669312044</v>
       </c>
       <c r="AB5" t="n">
-        <v>427.4729496421855</v>
+        <v>476.6756814152797</v>
       </c>
       <c r="AC5" t="n">
-        <v>386.6755312903875</v>
+        <v>431.1824233995254</v>
       </c>
       <c r="AD5" t="n">
-        <v>312424.474818831</v>
+        <v>348384.9669312044</v>
       </c>
       <c r="AE5" t="n">
-        <v>427472.9496421855</v>
+        <v>476675.6814152796</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.698440324397909e-06</v>
+        <v>5.063332455779672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.724283854166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>386675.5312903875</v>
+        <v>431182.4233995253</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>293.5118402234868</v>
+        <v>329.4723323358602</v>
       </c>
       <c r="AB6" t="n">
-        <v>401.5958486222838</v>
+        <v>450.7985803953781</v>
       </c>
       <c r="AC6" t="n">
-        <v>363.2681044730859</v>
+        <v>407.7749965822238</v>
       </c>
       <c r="AD6" t="n">
-        <v>293511.8402234868</v>
+        <v>329472.3323358602</v>
       </c>
       <c r="AE6" t="n">
-        <v>401595.8486222838</v>
+        <v>450798.5803953781</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.792291691707992e-06</v>
+        <v>5.239434432104264e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.530598958333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>363268.104473086</v>
+        <v>407774.9965822237</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>279.9646890918506</v>
+        <v>315.7545890036318</v>
       </c>
       <c r="AB7" t="n">
-        <v>383.0600387858519</v>
+        <v>432.0293587840991</v>
       </c>
       <c r="AC7" t="n">
-        <v>346.5013263122706</v>
+        <v>390.7970831387573</v>
       </c>
       <c r="AD7" t="n">
-        <v>279964.6890918506</v>
+        <v>315754.5890036318</v>
       </c>
       <c r="AE7" t="n">
-        <v>383060.0387858519</v>
+        <v>432029.3587840991</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.854353162103133e-06</v>
+        <v>5.35588609288918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.411783854166667</v>
       </c>
       <c r="AH7" t="n">
-        <v>346501.3263122706</v>
+        <v>390797.0831387573</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>267.4689940758397</v>
+        <v>303.2588939876209</v>
       </c>
       <c r="AB8" t="n">
-        <v>365.9628775937885</v>
+        <v>414.9321975920356</v>
       </c>
       <c r="AC8" t="n">
-        <v>331.0358941883611</v>
+        <v>375.3316510148479</v>
       </c>
       <c r="AD8" t="n">
-        <v>267468.9940758397</v>
+        <v>303258.8939876209</v>
       </c>
       <c r="AE8" t="n">
-        <v>365962.8775937885</v>
+        <v>414932.1975920356</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.903793568946969e-06</v>
+        <v>5.448655688101631e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.319010416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>331035.8941883611</v>
+        <v>375331.6510148479</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>260.170224716186</v>
+        <v>284.143975632986</v>
       </c>
       <c r="AB9" t="n">
-        <v>355.9763793569317</v>
+        <v>388.7783230085428</v>
       </c>
       <c r="AC9" t="n">
-        <v>322.0024933270916</v>
+        <v>351.6738655144101</v>
       </c>
       <c r="AD9" t="n">
-        <v>260170.224716186</v>
+        <v>284143.975632986</v>
       </c>
       <c r="AE9" t="n">
-        <v>355976.3793569317</v>
+        <v>388778.3230085428</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.930743809913667e-06</v>
+        <v>5.499224910827802e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.270182291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>322002.4933270916</v>
+        <v>351673.8655144101</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>260.9404457894694</v>
+        <v>284.9141967062695</v>
       </c>
       <c r="AB10" t="n">
-        <v>357.0302298091536</v>
+        <v>389.8321734607649</v>
       </c>
       <c r="AC10" t="n">
-        <v>322.955765771242</v>
+        <v>352.6271379585605</v>
       </c>
       <c r="AD10" t="n">
-        <v>260940.4457894695</v>
+        <v>284914.1967062695</v>
       </c>
       <c r="AE10" t="n">
-        <v>357030.2298091537</v>
+        <v>389832.1734607649</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.92903569604958e-06</v>
+        <v>5.496019819246566e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH10" t="n">
-        <v>322955.765771242</v>
+        <v>352627.1379585605</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.1592609865778</v>
+        <v>202.7146919849393</v>
       </c>
       <c r="AB2" t="n">
-        <v>227.346431310972</v>
+        <v>277.3631847147012</v>
       </c>
       <c r="AC2" t="n">
-        <v>205.6488069894386</v>
+        <v>250.8920316472861</v>
       </c>
       <c r="AD2" t="n">
-        <v>166159.2609865778</v>
+        <v>202714.6919849393</v>
       </c>
       <c r="AE2" t="n">
-        <v>227346.431310972</v>
+        <v>277363.1847147011</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.943018133167353e-06</v>
+        <v>7.360265006783739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.7431640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>205648.8069894386</v>
+        <v>250892.0316472861</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.0703690707574</v>
+        <v>380.5122995023372</v>
       </c>
       <c r="AB2" t="n">
-        <v>476.2452347435381</v>
+        <v>520.6337151969846</v>
       </c>
       <c r="AC2" t="n">
-        <v>430.793057953999</v>
+        <v>470.9451641325922</v>
       </c>
       <c r="AD2" t="n">
-        <v>348070.3690707574</v>
+        <v>380512.2995023372</v>
       </c>
       <c r="AE2" t="n">
-        <v>476245.2347435381</v>
+        <v>520633.7151969845</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.40952039241835e-06</v>
+        <v>4.961885486107911e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.058919270833333</v>
       </c>
       <c r="AH2" t="n">
-        <v>430793.057953999</v>
+        <v>470945.1641325922</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>233.2007189998151</v>
+        <v>265.6425599228468</v>
       </c>
       <c r="AB3" t="n">
-        <v>319.0755118250236</v>
+        <v>363.4638698090756</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.6233928018314</v>
+        <v>328.7753881992418</v>
       </c>
       <c r="AD3" t="n">
-        <v>233200.7189998151</v>
+        <v>265642.5599228468</v>
       </c>
       <c r="AE3" t="n">
-        <v>319075.5118250236</v>
+        <v>363463.8698090755</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.985276100153449e-06</v>
+        <v>6.147529690964493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.6982421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>288623.3928018314</v>
+        <v>328775.3881992418</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.4412345353355</v>
+        <v>241.7124832577717</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.5667369862622</v>
+        <v>330.7216831952906</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.2172098073191</v>
+        <v>299.1580699220281</v>
       </c>
       <c r="AD4" t="n">
-        <v>209441.2345353355</v>
+        <v>241712.4832577717</v>
       </c>
       <c r="AE4" t="n">
-        <v>286566.7369862622</v>
+        <v>330721.6831952906</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.149359683588574e-06</v>
+        <v>6.485424300081361e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.402018229166667</v>
       </c>
       <c r="AH4" t="n">
-        <v>259217.2098073191</v>
+        <v>299158.0699220281</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>209.3173527424328</v>
+        <v>241.5886014648689</v>
       </c>
       <c r="AB5" t="n">
-        <v>286.3972364519337</v>
+        <v>330.5521826609621</v>
       </c>
       <c r="AC5" t="n">
-        <v>259.0638861660914</v>
+        <v>299.0047462808003</v>
       </c>
       <c r="AD5" t="n">
-        <v>209317.3527424328</v>
+        <v>241588.6014648689</v>
       </c>
       <c r="AE5" t="n">
-        <v>286397.2364519337</v>
+        <v>330552.1826609621</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.154062716234804e-06</v>
+        <v>6.495109177412737e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.393880208333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>259063.8861660914</v>
+        <v>299004.7462808003</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>456.9262343818264</v>
+        <v>513.062089316551</v>
       </c>
       <c r="AB2" t="n">
-        <v>625.186632043985</v>
+        <v>701.9941853048093</v>
       </c>
       <c r="AC2" t="n">
-        <v>565.5196973366554</v>
+        <v>634.9968455143447</v>
       </c>
       <c r="AD2" t="n">
-        <v>456926.2343818264</v>
+        <v>513062.089316551</v>
       </c>
       <c r="AE2" t="n">
-        <v>625186.6320439851</v>
+        <v>701994.1853048094</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.065075508089664e-06</v>
+        <v>4.091294786259091e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.931315104166667</v>
       </c>
       <c r="AH2" t="n">
-        <v>565519.6973366555</v>
+        <v>634996.8455143447</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>300.6306104811324</v>
+        <v>334.3292811214324</v>
       </c>
       <c r="AB3" t="n">
-        <v>411.3360641467732</v>
+        <v>457.4440719972558</v>
       </c>
       <c r="AC3" t="n">
-        <v>372.0787274983963</v>
+        <v>413.7862517926242</v>
       </c>
       <c r="AD3" t="n">
-        <v>300630.6104811323</v>
+        <v>334329.2811214324</v>
       </c>
       <c r="AE3" t="n">
-        <v>411336.0641467732</v>
+        <v>457444.0719972558</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.704229609701784e-06</v>
+        <v>5.357576737353851e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.056315104166667</v>
       </c>
       <c r="AH3" t="n">
-        <v>372078.7274983963</v>
+        <v>413786.2517926242</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>252.1901791409012</v>
+        <v>285.974101127225</v>
       </c>
       <c r="AB4" t="n">
-        <v>345.0577289459001</v>
+        <v>391.2823814491992</v>
       </c>
       <c r="AC4" t="n">
-        <v>312.1259035869705</v>
+        <v>353.9389401319584</v>
       </c>
       <c r="AD4" t="n">
-        <v>252190.1791409012</v>
+        <v>285974.101127225</v>
       </c>
       <c r="AE4" t="n">
-        <v>345057.7289459</v>
+        <v>391282.3814491992</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.93344765810739e-06</v>
+        <v>5.811699892988904e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.582682291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>312125.9035869705</v>
+        <v>353938.9401319583</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.1586685384058</v>
+        <v>264.7719983241371</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.2814882948165</v>
+        <v>362.2727290232538</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.0960269559098</v>
+        <v>327.6979282182423</v>
       </c>
       <c r="AD5" t="n">
-        <v>231158.6685384058</v>
+        <v>264771.9983241371</v>
       </c>
       <c r="AE5" t="n">
-        <v>316281.4882948165</v>
+        <v>362272.7290232538</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.053892787142294e-06</v>
+        <v>6.050323868974489e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.362955729166667</v>
       </c>
       <c r="AH5" t="n">
-        <v>286096.0269559098</v>
+        <v>327697.9282182423</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>226.0835169816319</v>
+        <v>259.6968467673631</v>
       </c>
       <c r="AB6" t="n">
-        <v>309.3374420349573</v>
+        <v>355.328682763391</v>
       </c>
       <c r="AC6" t="n">
-        <v>279.8147107250592</v>
+        <v>321.4166119873906</v>
       </c>
       <c r="AD6" t="n">
-        <v>226083.5169816319</v>
+        <v>259696.8467673631</v>
       </c>
       <c r="AE6" t="n">
-        <v>309337.4420349573</v>
+        <v>355328.682763391</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.080859616366483e-06</v>
+        <v>6.103750122578612e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.315755208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>279814.7107250592</v>
+        <v>321416.6119873906</v>
       </c>
     </row>
   </sheetData>
